--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>625.9248441149809</v>
+        <v>336.7976575282865</v>
       </c>
       <c r="R2">
-        <v>5633.323597034829</v>
+        <v>3031.178917754578</v>
       </c>
       <c r="S2">
-        <v>0.002152146123241158</v>
+        <v>0.001297415516188202</v>
       </c>
       <c r="T2">
-        <v>0.002152146123241158</v>
+        <v>0.001297415516188201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>2061.818586417639</v>
+        <v>1808.120147194053</v>
       </c>
       <c r="R3">
-        <v>18556.36727775876</v>
+        <v>16273.08132474648</v>
       </c>
       <c r="S3">
-        <v>0.007089245488984233</v>
+        <v>0.006965259649720209</v>
       </c>
       <c r="T3">
-        <v>0.007089245488984233</v>
+        <v>0.006965259649720207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>1036.449105459716</v>
+        <v>959.2580266172837</v>
       </c>
       <c r="R4">
-        <v>9328.041949137449</v>
+        <v>8633.322239555553</v>
       </c>
       <c r="S4">
-        <v>0.003563670535247425</v>
+        <v>0.003695263966189588</v>
       </c>
       <c r="T4">
-        <v>0.003563670535247425</v>
+        <v>0.003695263966189588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>2460.573893230643</v>
+        <v>1957.150239956869</v>
       </c>
       <c r="R5">
-        <v>22145.16503907578</v>
+        <v>17614.35215961182</v>
       </c>
       <c r="S5">
-        <v>0.008460304164395745</v>
+        <v>0.007539354957117662</v>
       </c>
       <c r="T5">
-        <v>0.008460304164395745</v>
+        <v>0.007539354957117661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>25945.52530099714</v>
+        <v>15919.61297430572</v>
       </c>
       <c r="R6">
-        <v>233509.7277089743</v>
+        <v>143276.5167687514</v>
       </c>
       <c r="S6">
-        <v>0.08920969061541033</v>
+        <v>0.06132570231086169</v>
       </c>
       <c r="T6">
-        <v>0.08920969061541033</v>
+        <v>0.06132570231086169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
-        <v>85465.47848824185</v>
+        <v>85465.47848824183</v>
       </c>
       <c r="R7">
-        <v>769189.3063941766</v>
+        <v>769189.3063941764</v>
       </c>
       <c r="S7">
-        <v>0.2938598777933026</v>
+        <v>0.3292310246539678</v>
       </c>
       <c r="T7">
-        <v>0.2938598777933026</v>
+        <v>0.3292310246539678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>42962.37278602265</v>
+        <v>45341.81335557788</v>
       </c>
       <c r="R8">
-        <v>386661.3550742039</v>
+        <v>408076.3202002009</v>
       </c>
       <c r="S8">
-        <v>0.1477194984446011</v>
+        <v>0.1746662153512617</v>
       </c>
       <c r="T8">
-        <v>0.1477194984446011</v>
+        <v>0.1746662153512617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>101994.4851239381</v>
+        <v>92509.77153861629</v>
       </c>
       <c r="R9">
-        <v>917950.3661154426</v>
+        <v>832587.9438475465</v>
       </c>
       <c r="S9">
-        <v>0.3506923200369698</v>
+        <v>0.3563671252171522</v>
       </c>
       <c r="T9">
-        <v>0.3506923200369698</v>
+        <v>0.3563671252171522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>1311.840777194925</v>
+        <v>882.4641677360071</v>
       </c>
       <c r="R10">
-        <v>11806.56699475433</v>
+        <v>7942.177509624064</v>
       </c>
       <c r="S10">
-        <v>0.004510562361431204</v>
+        <v>0.00339943784675713</v>
       </c>
       <c r="T10">
-        <v>0.004510562361431204</v>
+        <v>0.00339943784675713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>4321.249942819328</v>
+        <v>4737.566325639595</v>
       </c>
       <c r="R11">
-        <v>38891.24948537395</v>
+        <v>42638.09693075635</v>
       </c>
       <c r="S11">
-        <v>0.01485795203598967</v>
+        <v>0.01825010335571976</v>
       </c>
       <c r="T11">
-        <v>0.01485795203598967</v>
+        <v>0.01825010335571976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>2172.235553218421</v>
+        <v>2513.410699811088</v>
       </c>
       <c r="R12">
-        <v>19550.11997896578</v>
+        <v>22620.69629829979</v>
       </c>
       <c r="S12">
-        <v>0.007468897214386423</v>
+        <v>0.009682187413119037</v>
       </c>
       <c r="T12">
-        <v>0.007468897214386423</v>
+        <v>0.009682187413119039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>5156.978827075083</v>
+        <v>5128.049198183066</v>
       </c>
       <c r="R13">
-        <v>46412.80944367575</v>
+        <v>46152.4427836476</v>
       </c>
       <c r="S13">
-        <v>0.01773147702104567</v>
+        <v>0.01975432562781526</v>
       </c>
       <c r="T13">
-        <v>0.01773147702104567</v>
+        <v>0.01975432562781526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>1550.711527283561</v>
+        <v>135.1969760912086</v>
       </c>
       <c r="R14">
-        <v>13956.40374555205</v>
+        <v>1216.772784820877</v>
       </c>
       <c r="S14">
-        <v>0.005331882626303978</v>
+        <v>0.0005208072283214366</v>
       </c>
       <c r="T14">
-        <v>0.005331882626303978</v>
+        <v>0.0005208072283214366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>5108.098646645183</v>
+        <v>725.8137663552371</v>
       </c>
       <c r="R15">
-        <v>45972.88781980665</v>
+        <v>6532.323897197134</v>
       </c>
       <c r="S15">
-        <v>0.01756341005293502</v>
+        <v>0.00279598750550453</v>
       </c>
       <c r="T15">
-        <v>0.01756341005293502</v>
+        <v>0.00279598750550453</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>2567.774055288773</v>
+        <v>385.0643898227964</v>
       </c>
       <c r="R16">
-        <v>23109.96649759896</v>
+        <v>3465.579508405168</v>
       </c>
       <c r="S16">
-        <v>0.008828895402390844</v>
+        <v>0.001483349135365288</v>
       </c>
       <c r="T16">
-        <v>0.008828895402390844</v>
+        <v>0.001483349135365289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>6096.003914592698</v>
+        <v>785.6372759247263</v>
       </c>
       <c r="R17">
-        <v>54864.03523133428</v>
+        <v>7070.735483322536</v>
       </c>
       <c r="S17">
-        <v>0.0209601700833648</v>
+        <v>0.003026440264938493</v>
       </c>
       <c r="T17">
-        <v>0.0209601700833648</v>
+        <v>0.003026440264938493</v>
       </c>
     </row>
   </sheetData>
